--- a/Spring系列/spring/复习版/05AOP源码.xlsx
+++ b/Spring系列/spring/复习版/05AOP源码.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -27,6 +27,29 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -38,7 +61,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -52,53 +97,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,8 +120,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,17 +144,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,9 +159,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,7 +183,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,151 +297,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,13 +315,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,17 +377,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -407,30 +407,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -446,11 +422,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,11 +468,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,10 +482,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -494,31 +494,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,97 +530,97 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -778,15 +778,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
+      <xdr:colOff>449580</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -803,7 +803,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="464820" y="2423160"/>
+          <a:off x="449580" y="2529840"/>
           <a:ext cx="5410200" cy="822960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -862,15 +862,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -887,7 +887,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6492240" y="2545080"/>
+          <a:off x="6286500" y="2461260"/>
           <a:ext cx="5242560" cy="480060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1128,53 +1128,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2651760" y="3261360"/>
-          <a:ext cx="15240" cy="1455420"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -3067,6 +3020,53 @@
         <a:xfrm>
           <a:off x="23865840" y="19164300"/>
           <a:ext cx="1344930" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1981200" y="1744980"/>
+          <a:ext cx="76200" cy="2933700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3355,8 +3355,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN113" sqref="AN113"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
